--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,60 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Opção 1</t>
+          <t>cadeira 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.756059</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Opção 2</t>
+          <t>cadeira 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.350765</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Opção 3</t>
+          <t>cadeira 3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Opção 4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.565051</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Opção 5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.0</t>
+          <t>0.058824</t>
         </is>
       </c>
     </row>
